--- a/cod_descricao_variaveis.xlsx
+++ b/cod_descricao_variaveis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1371634\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="27555" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="475">
   <si>
     <t>ID</t>
   </si>
@@ -1438,6 +1443,9 @@
   </si>
   <si>
     <t>Texto</t>
+  </si>
+  <si>
+    <t>IN030_teste</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,28 +1501,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1535,6 +1536,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1583,7 +1587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1618,7 +1622,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1827,11 +1831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q245"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N169" sqref="N169"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,9 +1851,10 @@
     <col min="9" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>242</v>
       </c>
@@ -1901,8 +1906,11 @@
       <c r="Q1" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1951,8 +1959,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2001,8 +2012,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2051,8 +2065,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2118,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2151,8 +2171,11 @@
       <c r="Q6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2201,8 +2224,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2251,8 +2277,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2301,8 +2330,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2351,8 +2383,11 @@
       <c r="Q10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2401,8 +2436,11 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2451,8 +2489,11 @@
       <c r="Q12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2501,8 +2542,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2551,8 +2595,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2601,8 +2648,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2651,8 +2701,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2701,8 +2754,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2751,8 +2807,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2801,8 +2860,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2851,8 +2913,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2901,8 +2966,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2951,8 +3019,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3001,8 +3072,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3051,8 +3125,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3101,8 +3178,11 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3151,8 +3231,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3201,8 +3284,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3251,8 +3337,11 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>469</v>
       </c>
@@ -3301,8 +3390,11 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>470</v>
       </c>
@@ -3351,8 +3443,11 @@
       <c r="Q30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -3401,8 +3496,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3451,8 +3549,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -3501,8 +3602,11 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3551,8 +3655,11 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3601,8 +3708,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3651,8 +3761,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -3701,8 +3814,11 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -3751,8 +3867,11 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3801,8 +3920,11 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -3851,8 +3973,11 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -3901,8 +4026,11 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3951,8 +4079,11 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4001,8 +4132,11 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -4051,8 +4185,11 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -4101,8 +4238,11 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -4151,8 +4291,11 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -4201,8 +4344,11 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -4251,8 +4397,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -4301,8 +4450,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -4351,8 +4503,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -4401,8 +4556,11 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -4451,8 +4609,11 @@
       <c r="Q52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -4501,8 +4662,11 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -4551,8 +4715,11 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -4601,8 +4768,11 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -4651,8 +4821,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -4701,8 +4874,11 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -4751,8 +4927,11 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4801,8 +4980,11 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -4851,8 +5033,11 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4901,8 +5086,11 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4951,8 +5139,11 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -5001,8 +5192,11 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -5051,8 +5245,11 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -5101,8 +5298,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -5151,8 +5351,11 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -5201,8 +5404,11 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -5251,8 +5457,11 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5510,11 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -5351,8 +5563,11 @@
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -5401,8 +5616,11 @@
       <c r="Q71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -5451,8 +5669,11 @@
       <c r="Q72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -5501,8 +5722,11 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -5551,8 +5775,11 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -5601,8 +5828,11 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -5651,8 +5881,11 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -5701,8 +5934,11 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -5751,8 +5987,11 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -5801,8 +6040,11 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -5851,8 +6093,11 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -5901,8 +6146,11 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -5951,8 +6199,11 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -6001,8 +6252,11 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -6051,8 +6305,11 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -6101,8 +6358,11 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -6151,8 +6411,11 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -6201,8 +6464,11 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6517,11 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -6301,8 +6570,11 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -6351,8 +6623,11 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -6401,8 +6676,11 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -6451,8 +6729,11 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -6501,8 +6782,11 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -6551,8 +6835,11 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -6601,8 +6888,11 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -6651,8 +6941,11 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -6701,8 +6994,11 @@
       <c r="Q97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -6751,8 +7047,11 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -6801,8 +7100,11 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -6851,8 +7153,11 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -6901,8 +7206,11 @@
       <c r="Q101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -6951,8 +7259,11 @@
       <c r="Q102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -7001,8 +7312,11 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -7051,8 +7365,11 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -7101,8 +7418,11 @@
       <c r="Q105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -7151,8 +7471,11 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -7201,8 +7524,11 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -7251,8 +7577,11 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -7301,8 +7630,11 @@
       <c r="Q109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -7351,8 +7683,11 @@
       <c r="Q110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -7401,8 +7736,11 @@
       <c r="Q111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -7451,8 +7789,11 @@
       <c r="Q112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -7501,8 +7842,11 @@
       <c r="Q113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -7551,8 +7895,11 @@
       <c r="Q114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -7601,8 +7948,11 @@
       <c r="Q115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -7651,8 +8001,11 @@
       <c r="Q116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -7701,8 +8054,11 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -7751,8 +8107,11 @@
       <c r="Q118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -7801,8 +8160,11 @@
       <c r="Q119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -7851,8 +8213,11 @@
       <c r="Q120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -7901,8 +8266,11 @@
       <c r="Q121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -7951,8 +8319,11 @@
       <c r="Q122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -8001,8 +8372,11 @@
       <c r="Q123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -8051,8 +8425,11 @@
       <c r="Q124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -8101,8 +8478,11 @@
       <c r="Q125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -8151,8 +8531,11 @@
       <c r="Q126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -8201,8 +8584,11 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -8251,8 +8637,11 @@
       <c r="Q128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -8301,8 +8690,11 @@
       <c r="Q129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -8351,8 +8743,11 @@
       <c r="Q130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -8401,8 +8796,11 @@
       <c r="Q131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -8451,8 +8849,11 @@
       <c r="Q132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>129</v>
       </c>
@@ -8501,8 +8902,11 @@
       <c r="Q133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>130</v>
       </c>
@@ -8551,8 +8955,11 @@
       <c r="Q134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>131</v>
       </c>
@@ -8601,8 +9008,11 @@
       <c r="Q135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>132</v>
       </c>
@@ -8651,8 +9061,11 @@
       <c r="Q136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>133</v>
       </c>
@@ -8701,8 +9114,11 @@
       <c r="Q137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -8751,8 +9167,11 @@
       <c r="Q138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>135</v>
       </c>
@@ -8801,8 +9220,11 @@
       <c r="Q139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>136</v>
       </c>
@@ -8851,8 +9273,11 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -8901,8 +9326,11 @@
       <c r="Q141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -8951,8 +9379,11 @@
       <c r="Q142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -9001,8 +9432,11 @@
       <c r="Q143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -9051,8 +9485,11 @@
       <c r="Q144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -9101,8 +9538,11 @@
       <c r="Q145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -9151,8 +9591,11 @@
       <c r="Q146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -9201,8 +9644,11 @@
       <c r="Q147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -9251,8 +9697,11 @@
       <c r="Q148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -9301,8 +9750,11 @@
       <c r="Q149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>146</v>
       </c>
@@ -9351,8 +9803,11 @@
       <c r="Q150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -9401,8 +9856,11 @@
       <c r="Q151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -9451,8 +9909,11 @@
       <c r="Q152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -9501,8 +9962,11 @@
       <c r="Q153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>150</v>
       </c>
@@ -9551,8 +10015,11 @@
       <c r="Q154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -9601,8 +10068,11 @@
       <c r="Q155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -9651,8 +10121,11 @@
       <c r="Q156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -9701,8 +10174,11 @@
       <c r="Q157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>154</v>
       </c>
@@ -9751,8 +10227,11 @@
       <c r="Q158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -9801,8 +10280,11 @@
       <c r="Q159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -9851,8 +10333,11 @@
       <c r="Q160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>157</v>
       </c>
@@ -9901,8 +10386,11 @@
       <c r="Q161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -9951,8 +10439,11 @@
       <c r="Q162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>159</v>
       </c>
@@ -10001,8 +10492,11 @@
       <c r="Q163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>160</v>
       </c>
@@ -10051,8 +10545,11 @@
       <c r="Q164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -10101,8 +10598,11 @@
       <c r="Q165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -10151,8 +10651,11 @@
       <c r="Q166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>163</v>
       </c>
@@ -10201,8 +10704,11 @@
       <c r="Q167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>164</v>
       </c>
@@ -10251,8 +10757,11 @@
       <c r="Q168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -10301,8 +10810,11 @@
       <c r="Q169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -10351,8 +10863,11 @@
       <c r="Q170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>167</v>
       </c>
@@ -10401,8 +10916,11 @@
       <c r="Q171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>168</v>
       </c>
@@ -10451,8 +10969,11 @@
       <c r="Q172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>169</v>
       </c>
@@ -10501,8 +11022,11 @@
       <c r="Q173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -10551,8 +11075,11 @@
       <c r="Q174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -10601,8 +11128,11 @@
       <c r="Q175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>172</v>
       </c>
@@ -10651,8 +11181,11 @@
       <c r="Q176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>173</v>
       </c>
@@ -10701,8 +11234,11 @@
       <c r="Q177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -10751,8 +11287,11 @@
       <c r="Q178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -10801,8 +11340,11 @@
       <c r="Q179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>176</v>
       </c>
@@ -10851,8 +11393,11 @@
       <c r="Q180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>177</v>
       </c>
@@ -10901,8 +11446,11 @@
       <c r="Q181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -10951,8 +11499,11 @@
       <c r="Q182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -11001,8 +11552,11 @@
       <c r="Q183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -11051,8 +11605,11 @@
       <c r="Q184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -11101,8 +11658,11 @@
       <c r="Q185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -11151,8 +11711,11 @@
       <c r="Q186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -11201,8 +11764,11 @@
       <c r="Q187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -11251,8 +11817,11 @@
       <c r="Q188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>185</v>
       </c>
@@ -11301,8 +11870,11 @@
       <c r="Q189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>186</v>
       </c>
@@ -11351,8 +11923,11 @@
       <c r="Q190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -11401,8 +11976,11 @@
       <c r="Q191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -11451,8 +12029,11 @@
       <c r="Q192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>189</v>
       </c>
@@ -11501,8 +12082,11 @@
       <c r="Q193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>190</v>
       </c>
@@ -11551,8 +12135,11 @@
       <c r="Q194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>191</v>
       </c>
@@ -11601,8 +12188,11 @@
       <c r="Q195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -11651,8 +12241,11 @@
       <c r="Q196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>193</v>
       </c>
@@ -11701,8 +12294,11 @@
       <c r="Q197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>194</v>
       </c>
@@ -11751,8 +12347,11 @@
       <c r="Q198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>195</v>
       </c>
@@ -11801,8 +12400,11 @@
       <c r="Q199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>196</v>
       </c>
@@ -11851,8 +12453,11 @@
       <c r="Q200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>197</v>
       </c>
@@ -11901,8 +12506,11 @@
       <c r="Q201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>198</v>
       </c>
@@ -11951,8 +12559,11 @@
       <c r="Q202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>199</v>
       </c>
@@ -12001,8 +12612,11 @@
       <c r="Q203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>200</v>
       </c>
@@ -12051,8 +12665,11 @@
       <c r="Q204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>201</v>
       </c>
@@ -12101,8 +12718,11 @@
       <c r="Q205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>202</v>
       </c>
@@ -12151,8 +12771,11 @@
       <c r="Q206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>203</v>
       </c>
@@ -12201,8 +12824,11 @@
       <c r="Q207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -12251,8 +12877,11 @@
       <c r="Q208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>205</v>
       </c>
@@ -12301,8 +12930,11 @@
       <c r="Q209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -12351,8 +12983,11 @@
       <c r="Q210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -12401,8 +13036,11 @@
       <c r="Q211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -12451,8 +13089,11 @@
       <c r="Q212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -12501,8 +13142,11 @@
       <c r="Q213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>210</v>
       </c>
@@ -12551,8 +13195,11 @@
       <c r="Q214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -12601,8 +13248,11 @@
       <c r="Q215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -12651,8 +13301,11 @@
       <c r="Q216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -12701,8 +13354,11 @@
       <c r="Q217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -12751,8 +13407,11 @@
       <c r="Q218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -12801,8 +13460,11 @@
       <c r="Q219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -12851,8 +13513,11 @@
       <c r="Q220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>217</v>
       </c>
@@ -12901,8 +13566,11 @@
       <c r="Q221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>218</v>
       </c>
@@ -12951,8 +13619,11 @@
       <c r="Q222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>219</v>
       </c>
@@ -13001,8 +13672,11 @@
       <c r="Q223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>220</v>
       </c>
@@ -13051,8 +13725,11 @@
       <c r="Q224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>221</v>
       </c>
@@ -13101,8 +13778,11 @@
       <c r="Q225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>222</v>
       </c>
@@ -13151,8 +13831,11 @@
       <c r="Q226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>223</v>
       </c>
@@ -13201,8 +13884,11 @@
       <c r="Q227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -13251,8 +13937,11 @@
       <c r="Q228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -13301,8 +13990,11 @@
       <c r="Q229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>226</v>
       </c>
@@ -13351,8 +14043,11 @@
       <c r="Q230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>227</v>
       </c>
@@ -13401,8 +14096,11 @@
       <c r="Q231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>228</v>
       </c>
@@ -13451,8 +14149,11 @@
       <c r="Q232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>229</v>
       </c>
@@ -13501,8 +14202,11 @@
       <c r="Q233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>230</v>
       </c>
@@ -13551,8 +14255,11 @@
       <c r="Q234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>231</v>
       </c>
@@ -13601,8 +14308,11 @@
       <c r="Q235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>232</v>
       </c>
@@ -13651,8 +14361,11 @@
       <c r="Q236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>233</v>
       </c>
@@ -13701,8 +14414,11 @@
       <c r="Q237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>234</v>
       </c>
@@ -13751,8 +14467,11 @@
       <c r="Q238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>235</v>
       </c>
@@ -13801,8 +14520,11 @@
       <c r="Q239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>236</v>
       </c>
@@ -13851,8 +14573,11 @@
       <c r="Q240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>237</v>
       </c>
@@ -13901,8 +14626,11 @@
       <c r="Q241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -13951,8 +14679,11 @@
       <c r="Q242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>239</v>
       </c>
@@ -14001,8 +14732,11 @@
       <c r="Q243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>240</v>
       </c>
@@ -14051,8 +14785,11 @@
       <c r="Q244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>241</v>
       </c>
@@ -14101,15 +14838,23 @@
       <c r="Q245">
         <v>0</v>
       </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:P245">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q245">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R245">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/cod_descricao_variaveis.xlsx
+++ b/cod_descricao_variaveis.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1371634\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -1587,7 +1582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1622,7 +1617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1833,9 +1828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2625,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2678,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2731,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2784,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2837,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2890,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2943,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2996,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3049,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3102,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3155,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3208,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3261,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3314,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3367,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>

--- a/cod_descricao_variaveis.xlsx
+++ b/cod_descricao_variaveis.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="720" yWindow="315" windowWidth="27555" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$P$245</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="474">
   <si>
     <t>ID</t>
   </si>
@@ -1438,9 +1441,6 @@
   </si>
   <si>
     <t>Texto</t>
-  </si>
-  <si>
-    <t>IN030_teste</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1474,12 +1474,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,15 +1490,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1531,9 +1545,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1826,11 +1837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:Q245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,17 +1850,10 @@
     <col min="2" max="2" width="102" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>242</v>
       </c>
@@ -1890,22 +1894,19 @@
         <v>149</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1954,11 +1955,8 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2007,11 +2005,8 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2060,11 +2055,8 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2113,11 +2105,8 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2166,11 +2155,8 @@
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2219,11 +2205,8 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2272,11 +2255,8 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2325,11 +2305,8 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2378,11 +2355,8 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2420,22 +2394,19 @@
         <v>1</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2484,11 +2455,8 @@
       <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2537,11 +2505,8 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2567,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2590,11 +2555,8 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2620,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2643,11 +2605,8 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2696,11 +2655,8 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2726,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2749,11 +2705,8 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2802,11 +2755,8 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2832,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2855,11 +2805,8 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2885,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2908,11 +2855,8 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2938,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2961,11 +2905,8 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2991,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3014,11 +2955,8 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3044,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3067,11 +3005,8 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3120,11 +3055,8 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3150,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3173,11 +3105,8 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3203,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3226,11 +3155,8 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3256,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3279,11 +3205,8 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3309,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3332,11 +3255,8 @@
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>469</v>
       </c>
@@ -3362,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3385,11 +3305,8 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>470</v>
       </c>
@@ -3433,16 +3350,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -3491,11 +3405,8 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3544,11 +3455,8 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -3597,11 +3505,8 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3650,11 +3555,8 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3703,11 +3605,8 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3756,11 +3655,8 @@
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -3809,11 +3705,8 @@
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -3862,11 +3755,8 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3915,11 +3805,8 @@
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -3968,11 +3855,8 @@
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -4021,11 +3905,8 @@
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -4074,11 +3955,8 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4127,11 +4005,8 @@
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -4180,11 +4055,8 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -4233,11 +4105,8 @@
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -4286,11 +4155,8 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -4339,11 +4205,8 @@
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -4392,11 +4255,8 @@
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -4445,11 +4305,8 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -4498,11 +4355,8 @@
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -4551,11 +4405,8 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -4593,22 +4444,19 @@
         <v>1</v>
       </c>
       <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
         <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -4657,11 +4505,8 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -4710,11 +4555,8 @@
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -4763,11 +4605,8 @@
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -4816,11 +4655,8 @@
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -4869,11 +4705,8 @@
       <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -4922,11 +4755,8 @@
       <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4975,11 +4805,8 @@
       <c r="Q59">
         <v>0</v>
       </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5028,11 +4855,8 @@
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5081,11 +4905,8 @@
       <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -5134,11 +4955,8 @@
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -5187,11 +5005,8 @@
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -5240,11 +5055,8 @@
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -5293,11 +5105,8 @@
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -5346,11 +5155,8 @@
       <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -5399,11 +5205,8 @@
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -5452,11 +5255,8 @@
       <c r="Q68">
         <v>0</v>
       </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -5505,11 +5305,8 @@
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -5553,16 +5350,13 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
-      <c r="R70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -5606,16 +5400,13 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -5659,16 +5450,13 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>1</v>
       </c>
-      <c r="R72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -5717,11 +5505,8 @@
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -5770,11 +5555,8 @@
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -5823,11 +5605,8 @@
       <c r="Q75">
         <v>0</v>
       </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -5876,11 +5655,8 @@
       <c r="Q76">
         <v>0</v>
       </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -5929,11 +5705,8 @@
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -5982,11 +5755,8 @@
       <c r="Q78">
         <v>0</v>
       </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -6035,11 +5805,8 @@
       <c r="Q79">
         <v>0</v>
       </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -6088,11 +5855,8 @@
       <c r="Q80">
         <v>0</v>
       </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -6141,11 +5905,8 @@
       <c r="Q81">
         <v>0</v>
       </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -6194,11 +5955,8 @@
       <c r="Q82">
         <v>0</v>
       </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -6247,11 +6005,8 @@
       <c r="Q83">
         <v>0</v>
       </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -6300,11 +6055,8 @@
       <c r="Q84">
         <v>0</v>
       </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -6353,11 +6105,8 @@
       <c r="Q85">
         <v>0</v>
       </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -6406,11 +6155,8 @@
       <c r="Q86">
         <v>0</v>
       </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -6459,11 +6205,8 @@
       <c r="Q87">
         <v>0</v>
       </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -6512,11 +6255,8 @@
       <c r="Q88">
         <v>0</v>
       </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -6565,11 +6305,8 @@
       <c r="Q89">
         <v>0</v>
       </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -6618,11 +6355,8 @@
       <c r="Q90">
         <v>0</v>
       </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -6671,11 +6405,8 @@
       <c r="Q91">
         <v>0</v>
       </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -6724,11 +6455,8 @@
       <c r="Q92">
         <v>0</v>
       </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -6777,11 +6505,8 @@
       <c r="Q93">
         <v>0</v>
       </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -6830,11 +6555,8 @@
       <c r="Q94">
         <v>0</v>
       </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -6883,11 +6605,8 @@
       <c r="Q95">
         <v>0</v>
       </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -6936,11 +6655,8 @@
       <c r="Q96">
         <v>0</v>
       </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -6989,11 +6705,8 @@
       <c r="Q97">
         <v>0</v>
       </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -7042,11 +6755,8 @@
       <c r="Q98">
         <v>0</v>
       </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -7095,11 +6805,8 @@
       <c r="Q99">
         <v>0</v>
       </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -7148,11 +6855,8 @@
       <c r="Q100">
         <v>0</v>
       </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -7201,11 +6905,8 @@
       <c r="Q101">
         <v>0</v>
       </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -7254,11 +6955,8 @@
       <c r="Q102">
         <v>0</v>
       </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -7307,11 +7005,8 @@
       <c r="Q103">
         <v>0</v>
       </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -7360,11 +7055,8 @@
       <c r="Q104">
         <v>0</v>
       </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -7413,11 +7105,8 @@
       <c r="Q105">
         <v>0</v>
       </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -7466,11 +7155,8 @@
       <c r="Q106">
         <v>0</v>
       </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -7519,11 +7205,8 @@
       <c r="Q107">
         <v>0</v>
       </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -7572,11 +7255,8 @@
       <c r="Q108">
         <v>0</v>
       </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -7625,11 +7305,8 @@
       <c r="Q109">
         <v>0</v>
       </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -7678,11 +7355,8 @@
       <c r="Q110">
         <v>0</v>
       </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -7731,11 +7405,8 @@
       <c r="Q111">
         <v>0</v>
       </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -7784,11 +7455,8 @@
       <c r="Q112">
         <v>0</v>
       </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -7837,11 +7505,8 @@
       <c r="Q113">
         <v>0</v>
       </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -7890,11 +7555,8 @@
       <c r="Q114">
         <v>0</v>
       </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -7943,11 +7605,8 @@
       <c r="Q115">
         <v>0</v>
       </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -7996,11 +7655,8 @@
       <c r="Q116">
         <v>0</v>
       </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -8049,11 +7705,8 @@
       <c r="Q117">
         <v>0</v>
       </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -8102,11 +7755,8 @@
       <c r="Q118">
         <v>0</v>
       </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -8155,11 +7805,8 @@
       <c r="Q119">
         <v>0</v>
       </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -8208,11 +7855,8 @@
       <c r="Q120">
         <v>0</v>
       </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -8261,11 +7905,8 @@
       <c r="Q121">
         <v>0</v>
       </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -8314,11 +7955,8 @@
       <c r="Q122">
         <v>0</v>
       </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -8367,11 +8005,8 @@
       <c r="Q123">
         <v>0</v>
       </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -8420,11 +8055,8 @@
       <c r="Q124">
         <v>0</v>
       </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -8473,11 +8105,8 @@
       <c r="Q125">
         <v>0</v>
       </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -8526,11 +8155,8 @@
       <c r="Q126">
         <v>0</v>
       </c>
-      <c r="R126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -8579,11 +8205,8 @@
       <c r="Q127">
         <v>0</v>
       </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -8632,11 +8255,8 @@
       <c r="Q128">
         <v>0</v>
       </c>
-      <c r="R128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -8685,11 +8305,8 @@
       <c r="Q129">
         <v>0</v>
       </c>
-      <c r="R129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -8738,11 +8355,8 @@
       <c r="Q130">
         <v>0</v>
       </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -8791,11 +8405,8 @@
       <c r="Q131">
         <v>0</v>
       </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -8844,11 +8455,8 @@
       <c r="Q132">
         <v>0</v>
       </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>129</v>
       </c>
@@ -8897,11 +8505,8 @@
       <c r="Q133">
         <v>0</v>
       </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>130</v>
       </c>
@@ -8950,11 +8555,8 @@
       <c r="Q134">
         <v>0</v>
       </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>131</v>
       </c>
@@ -9003,11 +8605,8 @@
       <c r="Q135">
         <v>0</v>
       </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>132</v>
       </c>
@@ -9056,11 +8655,8 @@
       <c r="Q136">
         <v>0</v>
       </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>133</v>
       </c>
@@ -9109,11 +8705,8 @@
       <c r="Q137">
         <v>0</v>
       </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -9162,11 +8755,8 @@
       <c r="Q138">
         <v>0</v>
       </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>135</v>
       </c>
@@ -9215,11 +8805,8 @@
       <c r="Q139">
         <v>0</v>
       </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>136</v>
       </c>
@@ -9268,11 +8855,8 @@
       <c r="Q140">
         <v>0</v>
       </c>
-      <c r="R140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -9321,11 +8905,8 @@
       <c r="Q141">
         <v>0</v>
       </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -9374,11 +8955,8 @@
       <c r="Q142">
         <v>0</v>
       </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -9416,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="N143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -9427,11 +9005,8 @@
       <c r="Q143">
         <v>0</v>
       </c>
-      <c r="R143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -9478,13 +9053,10 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>1</v>
-      </c>
-      <c r="R144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -9531,13 +9103,10 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>1</v>
-      </c>
-      <c r="R145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -9584,13 +9153,10 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>1</v>
-      </c>
-      <c r="R146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -9637,13 +9203,10 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>1</v>
-      </c>
-      <c r="R147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -9690,13 +9253,10 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>1</v>
-      </c>
-      <c r="R148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -9743,13 +9303,10 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>1</v>
-      </c>
-      <c r="R149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>146</v>
       </c>
@@ -9798,11 +9355,8 @@
       <c r="Q150">
         <v>0</v>
       </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -9851,11 +9405,8 @@
       <c r="Q151">
         <v>0</v>
       </c>
-      <c r="R151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -9904,11 +9455,8 @@
       <c r="Q152">
         <v>0</v>
       </c>
-      <c r="R152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -9957,11 +9505,8 @@
       <c r="Q153">
         <v>0</v>
       </c>
-      <c r="R153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>150</v>
       </c>
@@ -10010,11 +9555,8 @@
       <c r="Q154">
         <v>0</v>
       </c>
-      <c r="R154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -10063,11 +9605,8 @@
       <c r="Q155">
         <v>0</v>
       </c>
-      <c r="R155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -10116,11 +9655,8 @@
       <c r="Q156">
         <v>0</v>
       </c>
-      <c r="R156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -10169,11 +9705,8 @@
       <c r="Q157">
         <v>0</v>
       </c>
-      <c r="R157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>154</v>
       </c>
@@ -10222,11 +9755,8 @@
       <c r="Q158">
         <v>0</v>
       </c>
-      <c r="R158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -10275,11 +9805,8 @@
       <c r="Q159">
         <v>0</v>
       </c>
-      <c r="R159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -10326,13 +9853,10 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>1</v>
-      </c>
-      <c r="R160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>157</v>
       </c>
@@ -10379,13 +9903,10 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>1</v>
-      </c>
-      <c r="R161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -10423,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="N162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -10432,13 +9953,10 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>1</v>
-      </c>
-      <c r="R162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>159</v>
       </c>
@@ -10485,13 +10003,10 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>1</v>
-      </c>
-      <c r="R163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>160</v>
       </c>
@@ -10538,13 +10053,10 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>1</v>
-      </c>
-      <c r="R164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -10591,13 +10103,10 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>1</v>
-      </c>
-      <c r="R165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -10644,13 +10153,10 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>1</v>
-      </c>
-      <c r="R166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>163</v>
       </c>
@@ -10699,11 +10205,8 @@
       <c r="Q167">
         <v>0</v>
       </c>
-      <c r="R167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>164</v>
       </c>
@@ -10750,13 +10253,10 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>1</v>
-      </c>
-      <c r="R168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -10803,13 +10303,10 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>1</v>
-      </c>
-      <c r="R169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -10856,13 +10353,10 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>1</v>
-      </c>
-      <c r="R170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>167</v>
       </c>
@@ -10909,13 +10403,10 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>1</v>
-      </c>
-      <c r="R171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>168</v>
       </c>
@@ -10964,11 +10455,8 @@
       <c r="Q172">
         <v>0</v>
       </c>
-      <c r="R172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>169</v>
       </c>
@@ -11017,11 +10505,8 @@
       <c r="Q173">
         <v>0</v>
       </c>
-      <c r="R173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -11070,11 +10555,8 @@
       <c r="Q174">
         <v>0</v>
       </c>
-      <c r="R174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -11123,11 +10605,8 @@
       <c r="Q175">
         <v>0</v>
       </c>
-      <c r="R175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>172</v>
       </c>
@@ -11176,11 +10655,8 @@
       <c r="Q176">
         <v>0</v>
       </c>
-      <c r="R176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>173</v>
       </c>
@@ -11229,11 +10705,8 @@
       <c r="Q177">
         <v>0</v>
       </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -11282,11 +10755,8 @@
       <c r="Q178">
         <v>0</v>
       </c>
-      <c r="R178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -11335,11 +10805,8 @@
       <c r="Q179">
         <v>0</v>
       </c>
-      <c r="R179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>176</v>
       </c>
@@ -11388,11 +10855,8 @@
       <c r="Q180">
         <v>0</v>
       </c>
-      <c r="R180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>177</v>
       </c>
@@ -11441,11 +10905,8 @@
       <c r="Q181">
         <v>0</v>
       </c>
-      <c r="R181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -11494,11 +10955,8 @@
       <c r="Q182">
         <v>0</v>
       </c>
-      <c r="R182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -11547,11 +11005,8 @@
       <c r="Q183">
         <v>0</v>
       </c>
-      <c r="R183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -11600,11 +11055,8 @@
       <c r="Q184">
         <v>0</v>
       </c>
-      <c r="R184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -11653,11 +11105,8 @@
       <c r="Q185">
         <v>0</v>
       </c>
-      <c r="R185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -11706,11 +11155,8 @@
       <c r="Q186">
         <v>0</v>
       </c>
-      <c r="R186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -11757,13 +11203,10 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>1</v>
-      </c>
-      <c r="R187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -11812,11 +11255,8 @@
       <c r="Q188">
         <v>0</v>
       </c>
-      <c r="R188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>185</v>
       </c>
@@ -11865,11 +11305,8 @@
       <c r="Q189">
         <v>0</v>
       </c>
-      <c r="R189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>186</v>
       </c>
@@ -11918,11 +11355,8 @@
       <c r="Q190">
         <v>0</v>
       </c>
-      <c r="R190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -11971,11 +11405,8 @@
       <c r="Q191">
         <v>0</v>
       </c>
-      <c r="R191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -12024,11 +11455,8 @@
       <c r="Q192">
         <v>0</v>
       </c>
-      <c r="R192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>189</v>
       </c>
@@ -12077,11 +11505,8 @@
       <c r="Q193">
         <v>0</v>
       </c>
-      <c r="R193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>190</v>
       </c>
@@ -12130,11 +11555,8 @@
       <c r="Q194">
         <v>0</v>
       </c>
-      <c r="R194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>191</v>
       </c>
@@ -12183,11 +11605,8 @@
       <c r="Q195">
         <v>0</v>
       </c>
-      <c r="R195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -12236,11 +11655,8 @@
       <c r="Q196">
         <v>0</v>
       </c>
-      <c r="R196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>193</v>
       </c>
@@ -12289,11 +11705,8 @@
       <c r="Q197">
         <v>0</v>
       </c>
-      <c r="R197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>194</v>
       </c>
@@ -12342,11 +11755,8 @@
       <c r="Q198">
         <v>0</v>
       </c>
-      <c r="R198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>195</v>
       </c>
@@ -12395,11 +11805,8 @@
       <c r="Q199">
         <v>0</v>
       </c>
-      <c r="R199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>196</v>
       </c>
@@ -12448,11 +11855,8 @@
       <c r="Q200">
         <v>0</v>
       </c>
-      <c r="R200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>197</v>
       </c>
@@ -12501,11 +11905,8 @@
       <c r="Q201">
         <v>0</v>
       </c>
-      <c r="R201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>198</v>
       </c>
@@ -12554,11 +11955,8 @@
       <c r="Q202">
         <v>0</v>
       </c>
-      <c r="R202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>199</v>
       </c>
@@ -12607,11 +12005,8 @@
       <c r="Q203">
         <v>0</v>
       </c>
-      <c r="R203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>200</v>
       </c>
@@ -12660,11 +12055,8 @@
       <c r="Q204">
         <v>0</v>
       </c>
-      <c r="R204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>201</v>
       </c>
@@ -12713,11 +12105,8 @@
       <c r="Q205">
         <v>0</v>
       </c>
-      <c r="R205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>202</v>
       </c>
@@ -12766,11 +12155,8 @@
       <c r="Q206">
         <v>0</v>
       </c>
-      <c r="R206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>203</v>
       </c>
@@ -12819,11 +12205,8 @@
       <c r="Q207">
         <v>0</v>
       </c>
-      <c r="R207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -12872,11 +12255,8 @@
       <c r="Q208">
         <v>0</v>
       </c>
-      <c r="R208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>205</v>
       </c>
@@ -12925,11 +12305,8 @@
       <c r="Q209">
         <v>0</v>
       </c>
-      <c r="R209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -12978,11 +12355,8 @@
       <c r="Q210">
         <v>0</v>
       </c>
-      <c r="R210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -13031,11 +12405,8 @@
       <c r="Q211">
         <v>0</v>
       </c>
-      <c r="R211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -13084,11 +12455,8 @@
       <c r="Q212">
         <v>0</v>
       </c>
-      <c r="R212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -13137,11 +12505,8 @@
       <c r="Q213">
         <v>0</v>
       </c>
-      <c r="R213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>210</v>
       </c>
@@ -13190,11 +12555,8 @@
       <c r="Q214">
         <v>0</v>
       </c>
-      <c r="R214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -13243,11 +12605,8 @@
       <c r="Q215">
         <v>0</v>
       </c>
-      <c r="R215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -13296,11 +12655,8 @@
       <c r="Q216">
         <v>0</v>
       </c>
-      <c r="R216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -13344,16 +12700,13 @@
         <v>0</v>
       </c>
       <c r="P217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q217">
         <v>1</v>
       </c>
-      <c r="R217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -13402,11 +12755,8 @@
       <c r="Q218">
         <v>0</v>
       </c>
-      <c r="R218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -13455,11 +12805,8 @@
       <c r="Q219">
         <v>0</v>
       </c>
-      <c r="R219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -13508,11 +12855,8 @@
       <c r="Q220">
         <v>0</v>
       </c>
-      <c r="R220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>217</v>
       </c>
@@ -13561,11 +12905,8 @@
       <c r="Q221">
         <v>0</v>
       </c>
-      <c r="R221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>218</v>
       </c>
@@ -13614,11 +12955,8 @@
       <c r="Q222">
         <v>0</v>
       </c>
-      <c r="R222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>219</v>
       </c>
@@ -13667,11 +13005,8 @@
       <c r="Q223">
         <v>0</v>
       </c>
-      <c r="R223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>220</v>
       </c>
@@ -13720,11 +13055,8 @@
       <c r="Q224">
         <v>0</v>
       </c>
-      <c r="R224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>221</v>
       </c>
@@ -13773,11 +13105,8 @@
       <c r="Q225">
         <v>0</v>
       </c>
-      <c r="R225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>222</v>
       </c>
@@ -13826,11 +13155,8 @@
       <c r="Q226">
         <v>0</v>
       </c>
-      <c r="R226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>223</v>
       </c>
@@ -13879,11 +13205,8 @@
       <c r="Q227">
         <v>0</v>
       </c>
-      <c r="R227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -13932,11 +13255,8 @@
       <c r="Q228">
         <v>0</v>
       </c>
-      <c r="R228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -13985,11 +13305,8 @@
       <c r="Q229">
         <v>0</v>
       </c>
-      <c r="R229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>226</v>
       </c>
@@ -14038,11 +13355,8 @@
       <c r="Q230">
         <v>0</v>
       </c>
-      <c r="R230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>227</v>
       </c>
@@ -14091,11 +13405,8 @@
       <c r="Q231">
         <v>0</v>
       </c>
-      <c r="R231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>228</v>
       </c>
@@ -14144,11 +13455,8 @@
       <c r="Q232">
         <v>0</v>
       </c>
-      <c r="R232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>229</v>
       </c>
@@ -14197,11 +13505,8 @@
       <c r="Q233">
         <v>0</v>
       </c>
-      <c r="R233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>230</v>
       </c>
@@ -14250,11 +13555,8 @@
       <c r="Q234">
         <v>0</v>
       </c>
-      <c r="R234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>231</v>
       </c>
@@ -14303,11 +13605,8 @@
       <c r="Q235">
         <v>0</v>
       </c>
-      <c r="R235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>232</v>
       </c>
@@ -14356,11 +13655,8 @@
       <c r="Q236">
         <v>0</v>
       </c>
-      <c r="R236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>233</v>
       </c>
@@ -14409,11 +13705,8 @@
       <c r="Q237">
         <v>0</v>
       </c>
-      <c r="R237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>234</v>
       </c>
@@ -14462,11 +13755,8 @@
       <c r="Q238">
         <v>0</v>
       </c>
-      <c r="R238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>235</v>
       </c>
@@ -14515,11 +13805,8 @@
       <c r="Q239">
         <v>0</v>
       </c>
-      <c r="R239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>236</v>
       </c>
@@ -14568,11 +13855,8 @@
       <c r="Q240">
         <v>0</v>
       </c>
-      <c r="R240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>237</v>
       </c>
@@ -14621,11 +13905,8 @@
       <c r="Q241">
         <v>0</v>
       </c>
-      <c r="R241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -14674,11 +13955,8 @@
       <c r="Q242">
         <v>0</v>
       </c>
-      <c r="R242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>239</v>
       </c>
@@ -14727,11 +14005,8 @@
       <c r="Q243">
         <v>0</v>
       </c>
-      <c r="R243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>240</v>
       </c>
@@ -14780,11 +14055,8 @@
       <c r="Q244">
         <v>0</v>
       </c>
-      <c r="R244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>241</v>
       </c>
@@ -14833,23 +14105,21 @@
       <c r="Q245">
         <v>0</v>
       </c>
-      <c r="R245">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:P245">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <autoFilter ref="A1:P245"/>
+  <conditionalFormatting sqref="E2:O245">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P245">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q245">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R245">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
